--- a/data/pop_alagoas_v1.xlsx
+++ b/data/pop_alagoas_v1.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">MACEIO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t xml:space="preserve">MACEIÓ</t>
   </si>
   <si>
     <t xml:space="preserve">ARAPIRACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grande Maceió</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interior de AL</t>
   </si>
 </sst>
 </file>
@@ -35,7 +41,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -56,12 +62,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -126,11 +126,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -150,13 +150,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.35"/>
@@ -170,13 +170,25 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1018948</v>
+        <v>1012382</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>231747</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1330291</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2007066</v>
       </c>
     </row>
   </sheetData>
